--- a/Akrapovic/Akrapovic 2023-09-15 - 31 August 2023/akrapovic_catalogue_base.xlsx
+++ b/Akrapovic/Akrapovic 2023-09-15 - 31 August 2023/akrapovic_catalogue_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\AKRAPOVIC\Akrapovic 2023-09-15 - 31 August 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/AKRAPOVIC/Akrapovic 2023-09-15 - 31 August 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF10B74C-CD0D-4621-B41B-434994C5C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BF10B74C-CD0D-4621-B41B-434994C5C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BB17D1A-8C39-43D9-A3DF-AD518CA5733A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices - 31 August 2023" sheetId="1" r:id="rId1"/>
@@ -4499,7 +4499,7 @@
   <dimension ref="A1:Q816"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,7 +4512,8 @@
     <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="13" width="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="13" width="11" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="14" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="108.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
